--- a/tests/testdata/db/sample_db_tables.xlsx
+++ b/tests/testdata/db/sample_db_tables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="table_user" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
     <t xml:space="preserve">user</t>
   </si>
   <si>
-    <t xml:space="preserve">cell_name</t>
+    <t xml:space="preserve">column_name</t>
   </si>
   <si>
     <t xml:space="preserve">type</t>
@@ -164,6 +164,7 @@
       <sz val="10"/>
       <name val="Hiragino Mincho ProN"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -185,47 +186,55 @@
       <color rgb="FF000000"/>
       <name val="Hiragino Mincho ProN"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Hiragino Mincho ProN"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF808080"/>
       <name val="Hiragino Mincho ProN"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
       <name val="Hiragino Mincho ProN"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
       <name val="Hiragino Mincho ProN"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
       <name val="Hiragino Mincho ProN"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Hiragino Mincho ProN"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -339,22 +348,54 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -468,23 +509,23 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="10.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -783,22 +824,22 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="10.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1006,7 +1047,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/tests/testdata/db/sample_db_tables.xlsx
+++ b/tests/testdata/db/sample_db_tables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="table_user" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
   <si>
     <t xml:space="preserve">table_name</t>
   </si>
@@ -119,13 +119,25 @@
     <t xml:space="preserve">create_date</t>
   </si>
   <si>
+    <t xml:space="preserve">Create Date</t>
+  </si>
+  <si>
     <t xml:space="preserve">update_date</t>
   </si>
   <si>
+    <t xml:space="preserve">Update Date</t>
+  </si>
+  <si>
     <t xml:space="preserve">delete_date</t>
   </si>
   <si>
+    <t xml:space="preserve">Delete Date</t>
+  </si>
+  <si>
     <t xml:space="preserve">delete_flg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Flag</t>
   </si>
   <si>
     <t xml:space="preserve">project</t>
@@ -509,8 +521,8 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -737,7 +749,9 @@
       <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -751,12 +765,14 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -770,12 +786,14 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -789,12 +807,14 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -824,8 +844,8 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -847,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -884,17 +904,17 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>1</v>
@@ -931,18 +951,18 @@
         <v>1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -959,10 +979,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -979,7 +999,9 @@
       <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -992,12 +1014,14 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1010,12 +1034,14 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1028,12 +1054,14 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>

--- a/tests/testdata/db/sample_db_tables.xlsx
+++ b/tests/testdata/db/sample_db_tables.xlsx
@@ -21,12 +21,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
+  <si>
+    <t xml:space="preserve">User Master Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:table_info</t>
+  </si>
   <si>
     <t xml:space="preserve">table_name</t>
   </si>
   <si>
     <t xml:space="preserve">user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:column_definition</t>
   </si>
   <si>
     <t xml:space="preserve">column_name</t>
@@ -171,7 +180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Hiragino Mincho ProN"/>
@@ -245,6 +254,20 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFB2B2B2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFB2B2B2"/>
+      <name val="Hiragino Mincho ProN"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -289,7 +312,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FF666699"/>
       </patternFill>
     </fill>
     <fill>
@@ -409,12 +432,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -500,7 +531,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -519,10 +550,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -544,287 +575,331 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="B15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="B16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="B17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -842,10 +917,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -863,214 +938,266 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3"/>
-    </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="B16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="B17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/tests/testdata/db/sample_db_tables.xlsx
+++ b/tests/testdata/db/sample_db_tables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="table_user" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
     <t xml:space="preserve">user</t>
   </si>
   <si>
-    <t xml:space="preserve">:column_definition</t>
+    <t xml:space="preserve">:columns</t>
   </si>
   <si>
     <t xml:space="preserve">column_name</t>
@@ -180,7 +180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Hiragino Mincho ProN"/>
@@ -252,6 +252,7 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -268,6 +269,12 @@
       <sz val="10"/>
       <color rgb="FFB2B2B2"/>
       <name val="Hiragino Mincho ProN"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -432,7 +439,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -441,6 +448,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -449,11 +460,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -552,8 +567,8 @@
   </sheetPr>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -575,331 +590,331 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5"/>
+      <c r="F8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -919,7 +934,7 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -938,266 +953,266 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5"/>
+      <c r="F11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="5"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/tests/testdata/db/sample_db_tables.xlsx
+++ b/tests/testdata/db/sample_db_tables.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
   <si>
     <t xml:space="preserve">User Master Table</t>
   </si>
@@ -29,12 +29,18 @@
     <t xml:space="preserve">:table_info</t>
   </si>
   <si>
-    <t xml:space="preserve">table_name</t>
+    <t xml:space="preserve">name</t>
   </si>
   <si>
     <t xml:space="preserve">user</t>
   </si>
   <si>
+    <t xml:space="preserve">label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users</t>
+  </si>
+  <si>
     <t xml:space="preserve">:columns</t>
   </si>
   <si>
@@ -44,9 +50,6 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
-    <t xml:space="preserve">label</t>
-  </si>
-  <si>
     <t xml:space="preserve">description</t>
   </si>
   <si>
@@ -150,6 +153,9 @@
   </si>
   <si>
     <t xml:space="preserve">project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projects</t>
   </si>
   <si>
     <t xml:space="preserve">project_id</t>
@@ -565,10 +571,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -620,129 +626,116 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G9" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="I9" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="n">
         <v>1</v>
@@ -752,13 +745,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -773,39 +766,41 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -813,34 +808,32 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -855,13 +848,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -876,13 +869,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -897,13 +890,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -915,6 +908,27 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -935,7 +949,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -987,12 +1001,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
@@ -1000,7 +1018,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -1014,49 +1032,49 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F11" s="7" t="n">
         <v>1</v>
@@ -1074,13 +1092,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1093,18 +1111,18 @@
         <v>1</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1118,13 +1136,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -1136,13 +1154,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -1156,13 +1174,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1176,13 +1194,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1196,13 +1214,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>

--- a/tests/testdata/db/sample_db_tables.xlsx
+++ b/tests/testdata/db/sample_db_tables.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t xml:space="preserve">User Master Table</t>
   </si>
@@ -56,19 +56,10 @@
     <t xml:space="preserve">unique</t>
   </si>
   <si>
-    <t xml:space="preserve">primary_key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index</t>
-  </si>
-  <si>
     <t xml:space="preserve">hidden</t>
   </si>
   <si>
     <t xml:space="preserve">not_null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auto_increment</t>
   </si>
   <si>
     <t xml:space="preserve">foreign_key</t>
@@ -571,10 +562,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -584,12 +575,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="10.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="10.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -613,9 +601,6 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
@@ -648,9 +633,6 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
@@ -677,29 +659,20 @@
       <c r="H8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F9" s="7" t="n">
         <v>1</v>
@@ -707,228 +680,185 @@
       <c r="G9" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="n">
         <v>1</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G19" s="7"/>
-      <c r="H19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="H19" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -946,10 +876,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -959,11 +889,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="10.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="10.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -993,15 +921,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1009,7 +935,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1027,8 +953,6 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
@@ -1055,26 +979,20 @@
       <c r="H10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F11" s="7" t="n">
         <v>1</v>
@@ -1082,155 +1000,135 @@
       <c r="G11" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H11" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>47</v>
+      <c r="F12" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="H18" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/tests/testdata/db/sample_db_tables.xlsx
+++ b/tests/testdata/db/sample_db_tables.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
   <si>
     <t xml:space="preserve">User Master Table</t>
   </si>
@@ -41,6 +41,12 @@
     <t xml:space="preserve">Users</t>
   </si>
   <si>
+    <t xml:space="preserve">key_column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_account</t>
+  </si>
+  <si>
     <t xml:space="preserve">:columns</t>
   </si>
   <si>
@@ -72,9 +78,6 @@
   </si>
   <si>
     <t xml:space="preserve">User ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_account</t>
   </si>
   <si>
     <t xml:space="preserve">string</t>
@@ -562,10 +565,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -619,84 +622,72 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G10" s="7" t="n">
         <v>1</v>
       </c>
@@ -704,16 +695,18 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="n">
         <v>1</v>
@@ -722,13 +715,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -740,29 +733,31 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="H13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -772,31 +767,29 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -808,13 +801,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -826,13 +819,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -844,13 +837,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -859,6 +852,24 @@
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -878,7 +889,7 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -927,7 +938,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -935,7 +946,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -944,7 +955,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -956,43 +967,43 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="n">
         <v>1</v>
@@ -1004,13 +1015,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1021,18 +1032,18 @@
         <v>1</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1044,13 +1055,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -1060,13 +1071,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -1078,13 +1089,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1096,13 +1107,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1114,13 +1125,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>

--- a/tests/testdata/db/sample_db_tables.xlsx
+++ b/tests/testdata/db/sample_db_tables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="table_user" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
   <si>
     <t xml:space="preserve">User Master Table</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t xml:space="preserve">:columns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">column_name</t>
   </si>
   <si>
     <t xml:space="preserve">type</t>
@@ -180,7 +177,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Hiragino Mincho ProN"/>
@@ -201,55 +198,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Hiragino Mincho ProN"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Hiragino Mincho ProN"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Hiragino Mincho ProN"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Hiragino Mincho ProN"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Hiragino Mincho ProN"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Hiragino Mincho ProN"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Hiragino Mincho ProN"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -279,36 +227,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -318,44 +242,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF666699"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -366,7 +263,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -390,61 +287,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -452,65 +301,49 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFCCCCCC"/>
@@ -522,7 +355,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -538,7 +371,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -567,20 +400,20 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="10.87"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3221153846154"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3221153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7644230769231"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3221153846154"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.54807692307692"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.4375"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.99519230769231"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.3221153846154"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -647,43 +480,43 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7" t="n">
         <v>1</v>
@@ -698,10 +531,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
@@ -715,13 +548,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -733,13 +566,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -751,13 +584,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -767,13 +600,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -783,13 +616,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -801,13 +634,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -819,13 +652,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -837,13 +670,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -855,13 +688,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -874,7 +707,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -889,20 +722,20 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="10.87"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3221153846154"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3221153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7644230769231"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3221153846154"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.54807692307692"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.4375"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.99519230769231"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.3221153846154"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -938,7 +771,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -946,7 +779,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -967,43 +800,43 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="7" t="n">
         <v>1</v>
@@ -1015,13 +848,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1032,18 +865,18 @@
         <v>1</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1055,13 +888,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -1071,13 +904,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -1089,13 +922,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1107,13 +940,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1125,13 +958,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -1144,7 +977,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/tests/testdata/db/sample_db_tables.xlsx
+++ b/tests/testdata/db/sample_db_tables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="table_user" sheetId="1" state="visible" r:id="rId2"/>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">datetime</t>
   </si>
   <si>
-    <t xml:space="preserve">Last Login</t>
+    <t xml:space="preserve">Last Login Date</t>
   </si>
   <si>
     <t xml:space="preserve">create_date</t>
@@ -177,7 +177,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Hiragino Mincho ProN"/>
@@ -198,6 +198,55 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Hiragino Mincho ProN"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Hiragino Mincho ProN"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Hiragino Mincho ProN"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Hiragino Mincho ProN"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Hiragino Mincho ProN"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Hiragino Mincho ProN"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Hiragino Mincho ProN"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -227,12 +276,36 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -242,17 +315,44 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -263,7 +363,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -287,13 +387,61 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -301,49 +449,65 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFCCCCCC"/>
@@ -355,7 +519,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -371,7 +535,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -400,20 +564,20 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3221153846154"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3221153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7644230769231"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3221153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.54807692307692"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.4375"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.99519230769231"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.3221153846154"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -626,9 +790,7 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
@@ -707,7 +869,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -722,20 +884,20 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3221153846154"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3221153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7644230769231"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3221153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.54807692307692"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.4375"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.99519230769231"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.3221153846154"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -977,7 +1139,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
